--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elado\Desktop\University\Second\Preparatory Year\Semester A\IR\ProjectGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735CC8A2-F1F1-41F5-AE97-70381744A8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0A80F4-DAA0-49AC-A75D-92E2DEC42F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Quality</t>
   </si>
@@ -36,7 +36,13 @@
     <t>tf-idf, stemming, no lowering, wrong parsing, no stop words</t>
   </si>
   <si>
-    <t>tf-idf, stopwords, title 0.6, text 0.4, +pageranks 0.3</t>
+    <t>tf-idf, stopwords, title 0.55, text 0.45, +pageranks 0.3</t>
+  </si>
+  <si>
+    <t>tf-idf, stopwords, title 0.4, text 0.3, anchor 0.3 +pageranks 0.3</t>
+  </si>
+  <si>
+    <t>tf-idf, stopwords, title 0.4, text 0.2, anchor 0.4 +pageranks 0.3</t>
   </si>
 </sst>
 </file>
@@ -354,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -395,6 +401,28 @@
         <v>22.629743448893201</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="C16">
+        <v>19.803621347745199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0.21856666666666599</v>
+      </c>
+      <c r="C17">
+        <v>19.929215892155899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elado\Desktop\University\Second\Preparatory Year\Semester A\IR\ProjectGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenan\Documents\לימודים\תשפד\סמסטר ה\אחזור מידע\פרוייקט\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0A80F4-DAA0-49AC-A75D-92E2DEC42F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795E3EED-ED08-4542-A5EF-7D71FADBDD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Quality</t>
   </si>
@@ -43,6 +43,57 @@
   </si>
   <si>
     <t>tf-idf, stopwords, title 0.4, text 0.2, anchor 0.4 +pageranks 0.3</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, no stop words, title 0.55, text 0.45</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, no stop words, title 0.6, text 0.4</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, no stop words, title 0.4, text 0.6</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, no stop words, title 0.65, text 0.35</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, no stop words, title 0.75, text 0.25</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, no stop words, title 0.7, text 0.3</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, stop words, title 0.55, text 0.45</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, stop words, title 0.5, text 0.25, anchor 0.25</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, stop words, title 0.5, text 0.3, anchor 0.2</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, stop words, title 0.5, text 0.2, anchor 0.3</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, stop words, title 0.5, text 0.4, anchor 0.1</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, stop words, title 0.6, text 0.2, anchor 0.2 +pagerank 0.2</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, stop words, title 0.6, text 0.2, anchor 0.2 +pagerank 0.4</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, stop words, title 0.5, text 0.15, anchor 0.35 +pagerank 0.3</t>
+  </si>
+  <si>
+    <t>tf-idf, stemming, stop words, title 0.6, text 0.3, anchor 0.1 +pagerank 0.1</t>
+  </si>
+  <si>
+    <t>tf-idf, stopwords, title 0.6, text 0.4 +pageranks 0.5 no disambiguation pages</t>
+  </si>
+  <si>
+    <t>tf-idf, stopwords, title 0.6, text 0.4 +pageranks 0.3 no disambiguation pages</t>
   </si>
 </sst>
 </file>
@@ -360,18 +411,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.7265625" customWidth="1"/>
+    <col min="1" max="1" width="76.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -390,37 +441,215 @@
         <v>36.159999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C3">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.216</v>
+      </c>
+      <c r="C4">
+        <v>24.137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.17929999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C7">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="C9">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.26869999999999999</v>
+      </c>
+      <c r="C10">
+        <v>32.838000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.183</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.17</v>
+      </c>
+      <c r="C12">
+        <v>47.414000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C13">
+        <v>15.321999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.20186000000000001</v>
+      </c>
+      <c r="C14">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.20186000000000001</v>
+      </c>
+      <c r="C15">
+        <v>42.741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="C16">
+        <v>27.114000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.215</v>
+      </c>
+      <c r="C17">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B18">
         <v>0.21763333333333301</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>22.629743448893201</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <v>0.21790000000000001</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>19.803621347745199</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>0.21856666666666599</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>19.929215892155899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.219</v>
+      </c>
+      <c r="C21">
+        <v>41.396999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.219</v>
+      </c>
+      <c r="C22">
+        <v>40.694000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenan\Documents\לימודים\תשפד\סמסטר ה\אחזור מידע\פרוייקט\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elado\Desktop\University\Second\Preparatory Year\Semester A\IR\ProjectGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795E3EED-ED08-4542-A5EF-7D71FADBDD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDC8BD8-2C85-4070-B93A-64D966615AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Quality</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>tf-idf, stopwords, title 0.6, text 0.4 +pageranks 0.3 no disambiguation pages</t>
+  </si>
+  <si>
+    <t>tf-idf, stopwords, title 0.55, text 0.45 +pageranks 0.3 no disambiguation pages, query expansion 2</t>
   </si>
 </sst>
 </file>
@@ -411,18 +414,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="76.81640625" customWidth="1"/>
+    <col min="1" max="1" width="80.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -441,7 +444,7 @@
         <v>36.159999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -452,7 +455,7 @@
         <v>30.97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -463,7 +466,7 @@
         <v>24.137</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -471,7 +474,7 @@
         <v>0.17929999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -479,7 +482,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -490,7 +493,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -498,7 +501,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -509,7 +512,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -520,7 +523,7 @@
         <v>32.838000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -531,7 +534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -542,7 +545,7 @@
         <v>47.414000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -553,7 +556,7 @@
         <v>15.321999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -564,7 +567,7 @@
         <v>41.58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -575,7 +578,7 @@
         <v>42.741</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -586,7 +589,7 @@
         <v>27.114000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -597,7 +600,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -608,7 +611,7 @@
         <v>22.629743448893201</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -619,7 +622,7 @@
         <v>19.803621347745199</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -630,7 +633,7 @@
         <v>19.929215892155899</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -641,7 +644,7 @@
         <v>41.396999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -650,6 +653,17 @@
       </c>
       <c r="C22">
         <v>40.694000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="C23">
+        <v>31.871261366208302</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elado\Desktop\University\Second\Preparatory Year\Semester A\IR\ProjectGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDC8BD8-2C85-4070-B93A-64D966615AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BC53C1-E802-4FAD-87BE-2BC740834052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Quality</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>tf-idf, stopwords, title 0.55, text 0.45 +pageranks 0.3 no disambiguation pages, query expansion 2</t>
+  </si>
+  <si>
+    <t>tf-idf, stopwords, title 0.55, text 0.45 +pageranks 0.3 no disambiguation pages, query expansion 2 no duplicates</t>
+  </si>
+  <si>
+    <t>tf-idf, stopwords, title 0.55, text 0.45 ,no disambiguation pages, collect all docs of query in one list</t>
   </si>
 </sst>
 </file>
@@ -414,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="80.81640625" customWidth="1"/>
+    <col min="1" max="1" width="91.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.75">
@@ -666,6 +672,28 @@
         <v>31.871261366208302</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.16546666666666601</v>
+      </c>
+      <c r="C24">
+        <v>30.528587150573699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.21763333333333301</v>
+      </c>
+      <c r="C25">
+        <v>17.731015459696401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elado\Desktop\University\Second\Preparatory Year\Semester A\IR\ProjectGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenan\Documents\לימודים\תשפד\סמסטר ה\אחזור מידע\פרוייקט\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BC53C1-E802-4FAD-87BE-2BC740834052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE29F9F7-2E30-4CFE-B81B-7AD50F634DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Quality</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>tf-idf, stopwords, title 0.55, text 0.45 ,no disambiguation pages, collect all docs of query in one list</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.55, text 0.25, anchor 0.2 +pagerank 0.3 no disambiguation pages</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.6, text 0.3, anchor 0.1 +pagerank 0.4 no disambiguation pages</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.65, text 0.3, anchor 0.05 +pagerank 0.45 no disambiguation pages, collect all docs of query in one list</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.65, text 0.3, anchor 0.05 +pagerank 0.3 no disambiguation pages, collect all docs of query in one list</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.55, text 0.35, anchor 0.1 +pagerank 0.35 no disambiguation pages, collect all docs of query in one list</t>
   </si>
 </sst>
 </file>
@@ -420,18 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="91.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="111.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -450,7 +465,7 @@
         <v>36.159999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -461,7 +476,7 @@
         <v>30.97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -472,7 +487,7 @@
         <v>24.137</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -480,7 +495,7 @@
         <v>0.17929999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -488,7 +503,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -499,7 +514,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -507,7 +522,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -518,7 +533,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -529,7 +544,7 @@
         <v>32.838000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -540,7 +555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -551,7 +566,7 @@
         <v>47.414000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -562,7 +577,7 @@
         <v>15.321999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -573,7 +588,7 @@
         <v>41.58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -584,7 +599,7 @@
         <v>42.741</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -595,7 +610,7 @@
         <v>27.114000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -606,7 +621,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -617,7 +632,7 @@
         <v>22.629743448893201</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -628,7 +643,7 @@
         <v>19.803621347745199</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -639,7 +654,7 @@
         <v>19.929215892155899</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -650,7 +665,7 @@
         <v>41.396999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -661,7 +676,7 @@
         <v>40.694000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -672,7 +687,7 @@
         <v>31.871261366208302</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -683,7 +698,7 @@
         <v>30.528587150573699</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -692,6 +707,61 @@
       </c>
       <c r="C25">
         <v>17.731015459696401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="C26">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.23043</v>
+      </c>
+      <c r="C27">
+        <v>23.9315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="C28">
+        <v>16.748999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="C29">
+        <v>22.843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0.219</v>
+      </c>
+      <c r="C30">
+        <v>26.57</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenan\Documents\לימודים\תשפד\סמסטר ה\אחזור מידע\פרוייקט\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE29F9F7-2E30-4CFE-B81B-7AD50F634DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3197737-399F-45F7-82CD-EF27DD41DDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Quality</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>tf-idf, stop words, title 0.55, text 0.35, anchor 0.1 +pagerank 0.35 no disambiguation pages, collect all docs of query in one list</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.6, text 0.3, anchor 0.1  no disambiguation pages, collect all docs of query in one list</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.6, text 0.3, anchor 0.1  +pagerank 0.5 no disambiguation pages, collect all docs of query in one list, query expansion 2 no duplicates</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.7, text 0.2, anchor 0.1   +pagerank 0.2 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.7, text 0.2, anchor 0.1   +pagerank 0.2 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list, skip short docs (&gt;0.8)</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.6, text 0.3, anchor 0.1   +pagerank 0.4 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list, skip short docs (&gt;0.8)</t>
   </si>
 </sst>
 </file>
@@ -435,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="111.54296875" customWidth="1"/>
+    <col min="1" max="1" width="147.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -764,6 +779,61 @@
         <v>26.57</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0.23043</v>
+      </c>
+      <c r="C31">
+        <v>21.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="C32">
+        <v>38.598999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.21176</v>
+      </c>
+      <c r="C33">
+        <v>18.739000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="C34">
+        <v>9.7047000000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>0.2437</v>
+      </c>
+      <c r="C35">
+        <v>20.9025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenan\Documents\לימודים\תשפד\סמסטר ה\אחזור מידע\פרוייקט\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3197737-399F-45F7-82CD-EF27DD41DDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560C3B1-F9CD-479C-B68D-30E10A8D8B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Quality</t>
   </si>
@@ -129,10 +129,13 @@
     <t>tf-idf, stop words, title 0.7, text 0.2, anchor 0.1   +pagerank 0.2 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list</t>
   </si>
   <si>
-    <t>tf-idf, stop words, title 0.7, text 0.2, anchor 0.1   +pagerank 0.2 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list, skip short docs (&gt;0.8)</t>
-  </si>
-  <si>
-    <t>tf-idf, stop words, title 0.6, text 0.3, anchor 0.1   +pagerank 0.4 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list, skip short docs (&gt;0.8)</t>
+    <t>tf-idf, stop words, title 0.7, text 0.2, anchor 0.1   +pagerank 0.2 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list, skip short docs (&gt;0.8), add stop words</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.6, text 0.3, anchor 0.1   +pagerank 0.4 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list, skip short docs (&gt;0.8), add stop words</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.6, text 0.3, anchor 0.1   +pagerank 0.4 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list, skip short docs (&gt;0.7), add stop words</t>
   </si>
 </sst>
 </file>
@@ -450,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="147.54296875" customWidth="1"/>
+    <col min="1" max="1" width="178.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -834,6 +837,17 @@
         <v>20.9025</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>0.24673</v>
+      </c>
+      <c r="C36">
+        <v>14.43657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenan\Documents\לימודים\תשפד\סמסטר ה\אחזור מידע\פרוייקט\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560C3B1-F9CD-479C-B68D-30E10A8D8B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523A4393-A6E2-498C-9AC9-B25A49D8F249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Quality</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>tf-idf, stop words, title 0.6, text 0.3, anchor 0.1   +pagerank 0.4 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list, skip short docs (&gt;0.7), add stop words</t>
+  </si>
+  <si>
+    <t>12ץ875</t>
+  </si>
+  <si>
+    <t>tf-idf, stop words, title 0.6, text 0.3, anchor 0.1   +pagerank 0.4 no disambiguation pages, with anchor disambiguation, collect all docs of query in one list, skip short docs (&gt;0.6), add stop words</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -848,7 +854,19 @@
         <v>14.43657</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0.24476000000000001</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>